--- a/results.xlsx
+++ b/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Mode</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,18 +602,44 @@
         <v>11</v>
       </c>
       <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>3.78E-2</v>
+      </c>
+      <c r="H8">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>50</v>
       </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
         <v>59</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0.19670000000000001</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>76.2</v>
       </c>
     </row>
